--- a/Asylstatistik_Schweiz_201712.xlsx
+++ b/Asylstatistik_Schweiz_201712.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EAF0DF-63C2-4A7B-A1AB-E876634124AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E751ED1-3E20-43D5-95F5-5E43F3D16151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1092,6 +1092,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1148,9 +1151,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1495,7 +1495,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1656,53 +1656,53 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76">
+      <c r="A4" s="57">
         <v>2017</v>
       </c>
       <c r="B4" s="11">
-        <v>51512</v>
+        <v>51.512</v>
       </c>
       <c r="C4" s="12">
-        <v>21981</v>
+        <v>21.981000000000002</v>
       </c>
       <c r="D4" s="12">
-        <v>29531</v>
+        <v>29.530999999999999</v>
       </c>
       <c r="E4" s="26">
-        <v>31276</v>
+        <v>31.276</v>
       </c>
       <c r="F4" s="12">
-        <v>13674</v>
+        <v>13.673999999999999</v>
       </c>
       <c r="G4" s="12">
-        <v>17602</v>
+        <v>17.602</v>
       </c>
       <c r="H4" s="12">
-        <v>5457</v>
+        <v>5.4569999999999999</v>
       </c>
       <c r="I4" s="12">
-        <v>1344</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="J4" s="12">
-        <v>4113</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="K4" s="12">
-        <v>25819</v>
+        <v>25.818999999999999</v>
       </c>
       <c r="L4" s="12">
-        <v>12330</v>
+        <v>12.33</v>
       </c>
       <c r="M4" s="12">
-        <v>13489</v>
+        <v>13.489000000000001</v>
       </c>
       <c r="N4" s="26">
-        <v>20236</v>
+        <v>20.236000000000001</v>
       </c>
       <c r="O4" s="12">
-        <v>8307</v>
+        <v>8.3070000000000004</v>
       </c>
       <c r="P4" s="12">
-        <v>11929</v>
+        <v>11.929</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8375,71 +8375,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -13264,71 +13264,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -15135,71 +15135,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -17606,71 +17606,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -20145,71 +20145,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -23934,71 +23934,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -27623,71 +27623,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -29694,71 +29694,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -31715,71 +31715,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -35304,71 +35304,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -37626,71 +37626,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="28"/>
@@ -39157,71 +39157,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -42396,71 +42396,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -44935,71 +44935,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -47724,71 +47724,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -50613,71 +50613,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -52534,71 +52534,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -57573,71 +57573,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -61112,71 +61112,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -63333,71 +63333,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -68172,71 +68172,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -71661,71 +71661,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -73214,71 +73214,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -75035,71 +75035,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -79574,71 +79574,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -82745,71 +82745,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -86034,71 +86034,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>

--- a/Asylstatistik_Schweiz_201712.xlsx
+++ b/Asylstatistik_Schweiz_201712.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E751ED1-3E20-43D5-95F5-5E43F3D16151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F9E6A-CD89-41A8-A0F5-1772A667D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1660,49 +1660,49 @@
         <v>2017</v>
       </c>
       <c r="B4" s="11">
-        <v>51.512</v>
+        <v>51512</v>
       </c>
       <c r="C4" s="12">
-        <v>21.981000000000002</v>
+        <v>21981</v>
       </c>
       <c r="D4" s="12">
-        <v>29.530999999999999</v>
+        <v>29531</v>
       </c>
       <c r="E4" s="26">
-        <v>31.276</v>
+        <v>31276</v>
       </c>
       <c r="F4" s="12">
-        <v>13.673999999999999</v>
+        <v>13674</v>
       </c>
       <c r="G4" s="12">
-        <v>17.602</v>
+        <v>17602</v>
       </c>
       <c r="H4" s="12">
-        <v>5.4569999999999999</v>
+        <v>5457</v>
       </c>
       <c r="I4" s="12">
-        <v>1.3440000000000001</v>
+        <v>1344</v>
       </c>
       <c r="J4" s="12">
-        <v>4.1130000000000004</v>
+        <v>4113</v>
       </c>
       <c r="K4" s="12">
-        <v>25.818999999999999</v>
+        <v>25819</v>
       </c>
       <c r="L4" s="12">
-        <v>12.33</v>
+        <v>12330</v>
       </c>
       <c r="M4" s="12">
-        <v>13.489000000000001</v>
+        <v>13489</v>
       </c>
       <c r="N4" s="26">
-        <v>20.236000000000001</v>
+        <v>20236</v>
       </c>
       <c r="O4" s="12">
-        <v>8.3070000000000004</v>
+        <v>8307</v>
       </c>
       <c r="P4" s="12">
-        <v>11.929</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/Asylstatistik_Schweiz_201712.xlsx
+++ b/Asylstatistik_Schweiz_201712.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F9E6A-CD89-41A8-A0F5-1772A667D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B0C5B-8D6B-440F-8BA9-1EBB091BFE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH-Nati" sheetId="5" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="200">
   <si>
     <t>Total anerkannte 
 Flüchtlinge mit Asyl</t>
@@ -699,6 +699,9 @@
   <si>
     <t>Übrige Europa</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -922,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1151,6 +1154,18 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
@@ -37603,29 +37618,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="19" customWidth="1"/>
-    <col min="2" max="16" width="7.7265625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.54296875" style="2"/>
+    <col min="1" max="2" width="19.7265625" style="19" customWidth="1"/>
+    <col min="3" max="17" width="7.7265625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="20"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" s="21" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>10</v>
       </c>
@@ -37644,108 +37660,114 @@
       <c r="N2" s="58"/>
       <c r="O2" s="58"/>
       <c r="P2" s="58"/>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="58"/>
+    </row>
+    <row r="3" spans="1:20" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="66"/>
+      <c r="B3" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="65" t="s">
+        <v>1</v>
+      </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-    </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="71" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="27"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-    </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="8.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -37760,1366 +37782,1446 @@
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
-    </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:20" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="79"/>
+      <c r="C7" s="11">
         <v>51512</v>
       </c>
-      <c r="C7" s="12">
+      <c r="D7" s="12">
         <v>21981</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12">
         <v>29531</v>
       </c>
-      <c r="E7" s="26">
+      <c r="F7" s="26">
         <v>31276</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>13674</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <v>17602</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>5457</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>1344</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>4113</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>25819</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>12330</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>13489</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <v>20236</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>8307</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>11929</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="15">
         <v>3819</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D8" s="16">
         <v>1606</v>
       </c>
-      <c r="D8" s="16">
+      <c r="E8" s="16">
         <v>2213</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>2489</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="16">
         <v>1075</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="16">
         <v>1414</v>
       </c>
-      <c r="H8" s="17">
+      <c r="I8" s="17">
         <v>444</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="16">
         <v>109</v>
       </c>
-      <c r="J8" s="16">
+      <c r="K8" s="16">
         <v>335</v>
       </c>
-      <c r="K8" s="17">
+      <c r="L8" s="17">
         <v>2045</v>
       </c>
-      <c r="L8" s="16">
+      <c r="M8" s="16">
         <v>966</v>
       </c>
-      <c r="M8" s="16">
+      <c r="N8" s="16">
         <v>1079</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="15">
         <v>1330</v>
       </c>
-      <c r="O8" s="16">
+      <c r="P8" s="16">
         <v>531</v>
       </c>
-      <c r="P8" s="16">
+      <c r="Q8" s="16">
         <v>799</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="15">
         <v>415</v>
       </c>
-      <c r="C9" s="17">
+      <c r="D9" s="17">
         <v>159</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E9" s="17">
         <v>256</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="15">
         <v>290</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G9" s="17">
         <v>118</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="17">
         <v>172</v>
       </c>
-      <c r="H9" s="17">
+      <c r="I9" s="17">
         <v>63</v>
       </c>
-      <c r="I9" s="17">
+      <c r="J9" s="17">
         <v>12</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>51</v>
       </c>
-      <c r="K9" s="17">
+      <c r="L9" s="17">
         <v>227</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>106</v>
       </c>
-      <c r="M9" s="17">
+      <c r="N9" s="17">
         <v>121</v>
       </c>
-      <c r="N9" s="15">
+      <c r="O9" s="15">
         <v>125</v>
       </c>
-      <c r="O9" s="17">
+      <c r="P9" s="17">
         <v>41</v>
       </c>
-      <c r="P9" s="17">
+      <c r="Q9" s="17">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="15">
         <v>98</v>
       </c>
-      <c r="C10" s="16">
+      <c r="D10" s="16">
         <v>35</v>
       </c>
-      <c r="D10" s="16">
+      <c r="E10" s="16">
         <v>63</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F10" s="15">
         <v>74</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>27</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="16">
         <v>47</v>
       </c>
-      <c r="H10" s="17">
+      <c r="I10" s="17">
         <v>18</v>
       </c>
-      <c r="I10" s="16">
+      <c r="J10" s="16">
         <v>4</v>
       </c>
-      <c r="J10" s="16">
+      <c r="K10" s="16">
         <v>14</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>56</v>
       </c>
-      <c r="L10" s="16">
+      <c r="M10" s="16">
         <v>23</v>
       </c>
-      <c r="M10" s="16">
+      <c r="N10" s="16">
         <v>33</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="15">
         <v>24</v>
       </c>
-      <c r="O10" s="16">
+      <c r="P10" s="16">
         <v>8</v>
       </c>
-      <c r="P10" s="16">
+      <c r="Q10" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="15">
         <v>1987</v>
       </c>
-      <c r="C11" s="17">
+      <c r="D11" s="17">
         <v>863</v>
       </c>
-      <c r="D11" s="17">
+      <c r="E11" s="17">
         <v>1124</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F11" s="15">
         <v>1107</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G11" s="17">
         <v>508</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="17">
         <v>599</v>
       </c>
-      <c r="H11" s="17">
+      <c r="I11" s="17">
         <v>203</v>
       </c>
-      <c r="I11" s="17">
+      <c r="J11" s="17">
         <v>50</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>153</v>
       </c>
-      <c r="K11" s="17">
+      <c r="L11" s="17">
         <v>904</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>458</v>
       </c>
-      <c r="M11" s="17">
+      <c r="N11" s="17">
         <v>446</v>
       </c>
-      <c r="N11" s="15">
+      <c r="O11" s="15">
         <v>880</v>
       </c>
-      <c r="O11" s="17">
+      <c r="P11" s="17">
         <v>355</v>
       </c>
-      <c r="P11" s="17">
+      <c r="Q11" s="17">
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="15">
         <v>1236</v>
       </c>
-      <c r="C12" s="16">
+      <c r="D12" s="16">
         <v>505</v>
       </c>
-      <c r="D12" s="16">
+      <c r="E12" s="16">
         <v>731</v>
       </c>
-      <c r="E12" s="15">
+      <c r="F12" s="15">
         <v>646</v>
       </c>
-      <c r="F12" s="16">
+      <c r="G12" s="16">
         <v>285</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="16">
         <v>361</v>
       </c>
-      <c r="H12" s="17">
+      <c r="I12" s="17">
         <v>137</v>
       </c>
-      <c r="I12" s="16">
+      <c r="J12" s="16">
         <v>34</v>
       </c>
-      <c r="J12" s="16">
+      <c r="K12" s="16">
         <v>103</v>
       </c>
-      <c r="K12" s="17">
+      <c r="L12" s="17">
         <v>509</v>
       </c>
-      <c r="L12" s="16">
+      <c r="M12" s="16">
         <v>251</v>
       </c>
-      <c r="M12" s="16">
+      <c r="N12" s="16">
         <v>258</v>
       </c>
-      <c r="N12" s="15">
+      <c r="O12" s="15">
         <v>590</v>
       </c>
-      <c r="O12" s="16">
+      <c r="P12" s="16">
         <v>220</v>
       </c>
-      <c r="P12" s="16">
+      <c r="Q12" s="16">
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="15">
         <v>7644</v>
       </c>
-      <c r="C13" s="17">
+      <c r="D13" s="17">
         <v>3339</v>
       </c>
-      <c r="D13" s="17">
+      <c r="E13" s="17">
         <v>4305</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F13" s="15">
         <v>4300</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G13" s="17">
         <v>1874</v>
       </c>
-      <c r="G13" s="17">
+      <c r="H13" s="17">
         <v>2426</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="17">
         <v>722</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J13" s="17">
         <v>187</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>535</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>3578</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>1687</v>
       </c>
-      <c r="M13" s="17">
+      <c r="N13" s="17">
         <v>1891</v>
       </c>
-      <c r="N13" s="15">
+      <c r="O13" s="15">
         <v>3344</v>
       </c>
-      <c r="O13" s="17">
+      <c r="P13" s="17">
         <v>1465</v>
       </c>
-      <c r="P13" s="17">
+      <c r="Q13" s="17">
         <v>1879</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="15">
         <v>1899</v>
       </c>
-      <c r="C14" s="16">
+      <c r="D14" s="16">
         <v>776</v>
       </c>
-      <c r="D14" s="16">
+      <c r="E14" s="16">
         <v>1123</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F14" s="15">
         <v>1186</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="16">
         <v>493</v>
       </c>
-      <c r="G14" s="16">
+      <c r="H14" s="16">
         <v>693</v>
       </c>
-      <c r="H14" s="17">
+      <c r="I14" s="17">
         <v>185</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>33</v>
       </c>
-      <c r="J14" s="16">
+      <c r="K14" s="16">
         <v>152</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>1001</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="16">
         <v>460</v>
       </c>
-      <c r="M14" s="16">
+      <c r="N14" s="16">
         <v>541</v>
       </c>
-      <c r="N14" s="15">
+      <c r="O14" s="15">
         <v>713</v>
       </c>
-      <c r="O14" s="16">
+      <c r="P14" s="16">
         <v>283</v>
       </c>
-      <c r="P14" s="16">
+      <c r="Q14" s="16">
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="15">
         <v>2990</v>
       </c>
-      <c r="C15" s="17">
+      <c r="D15" s="17">
         <v>1269</v>
       </c>
-      <c r="D15" s="17">
+      <c r="E15" s="17">
         <v>1721</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F15" s="15">
         <v>1695</v>
       </c>
-      <c r="F15" s="17">
+      <c r="G15" s="17">
         <v>733</v>
       </c>
-      <c r="G15" s="17">
+      <c r="H15" s="17">
         <v>962</v>
       </c>
-      <c r="H15" s="17">
+      <c r="I15" s="17">
         <v>110</v>
       </c>
-      <c r="I15" s="17">
+      <c r="J15" s="17">
         <v>24</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>86</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>1585</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>709</v>
       </c>
-      <c r="M15" s="17">
+      <c r="N15" s="17">
         <v>876</v>
       </c>
-      <c r="N15" s="15">
+      <c r="O15" s="15">
         <v>1295</v>
       </c>
-      <c r="O15" s="17">
+      <c r="P15" s="17">
         <v>536</v>
       </c>
-      <c r="P15" s="17">
+      <c r="Q15" s="17">
         <v>759</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="15">
         <v>282</v>
       </c>
-      <c r="C16" s="16">
+      <c r="D16" s="16">
         <v>108</v>
       </c>
-      <c r="D16" s="16">
+      <c r="E16" s="16">
         <v>174</v>
       </c>
-      <c r="E16" s="15">
+      <c r="F16" s="15">
         <v>214</v>
       </c>
-      <c r="F16" s="16">
+      <c r="G16" s="16">
         <v>79</v>
       </c>
-      <c r="G16" s="16">
+      <c r="H16" s="16">
         <v>135</v>
       </c>
-      <c r="H16" s="17">
+      <c r="I16" s="17">
         <v>66</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <v>13</v>
       </c>
-      <c r="J16" s="16">
+      <c r="K16" s="16">
         <v>53</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>148</v>
       </c>
-      <c r="L16" s="16">
+      <c r="M16" s="16">
         <v>66</v>
       </c>
-      <c r="M16" s="16">
+      <c r="N16" s="16">
         <v>82</v>
       </c>
-      <c r="N16" s="15">
+      <c r="O16" s="15">
         <v>68</v>
       </c>
-      <c r="O16" s="16">
+      <c r="P16" s="16">
         <v>29</v>
       </c>
-      <c r="P16" s="16">
+      <c r="Q16" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="15">
         <v>1097</v>
       </c>
-      <c r="C17" s="17">
+      <c r="D17" s="17">
         <v>456</v>
       </c>
-      <c r="D17" s="17">
+      <c r="E17" s="17">
         <v>641</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="15">
         <v>756</v>
       </c>
-      <c r="F17" s="17">
+      <c r="G17" s="17">
         <v>321</v>
       </c>
-      <c r="G17" s="17">
+      <c r="H17" s="17">
         <v>435</v>
       </c>
-      <c r="H17" s="17">
+      <c r="I17" s="17">
         <v>171</v>
       </c>
-      <c r="I17" s="17">
+      <c r="J17" s="17">
         <v>48</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>123</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>585</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>273</v>
       </c>
-      <c r="M17" s="17">
+      <c r="N17" s="17">
         <v>312</v>
       </c>
-      <c r="N17" s="15">
+      <c r="O17" s="15">
         <v>341</v>
       </c>
-      <c r="O17" s="17">
+      <c r="P17" s="17">
         <v>135</v>
       </c>
-      <c r="P17" s="17">
+      <c r="Q17" s="17">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="15">
         <v>493</v>
       </c>
-      <c r="C18" s="16">
+      <c r="D18" s="16">
         <v>218</v>
       </c>
-      <c r="D18" s="16">
+      <c r="E18" s="16">
         <v>275</v>
       </c>
-      <c r="E18" s="15">
+      <c r="F18" s="15">
         <v>347</v>
       </c>
-      <c r="F18" s="16">
+      <c r="G18" s="16">
         <v>160</v>
       </c>
-      <c r="G18" s="16">
+      <c r="H18" s="16">
         <v>187</v>
       </c>
-      <c r="H18" s="17">
+      <c r="I18" s="17">
         <v>50</v>
       </c>
-      <c r="I18" s="16">
+      <c r="J18" s="16">
         <v>11</v>
       </c>
-      <c r="J18" s="16">
+      <c r="K18" s="16">
         <v>39</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>297</v>
       </c>
-      <c r="L18" s="16">
+      <c r="M18" s="16">
         <v>149</v>
       </c>
-      <c r="M18" s="16">
+      <c r="N18" s="16">
         <v>148</v>
       </c>
-      <c r="N18" s="15">
+      <c r="O18" s="15">
         <v>146</v>
       </c>
-      <c r="O18" s="16">
+      <c r="P18" s="16">
         <v>58</v>
       </c>
-      <c r="P18" s="16">
+      <c r="Q18" s="16">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C19" s="15">
         <v>2821</v>
       </c>
-      <c r="C19" s="17">
+      <c r="D19" s="17">
         <v>1119</v>
       </c>
-      <c r="D19" s="17">
+      <c r="E19" s="17">
         <v>1702</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>1629</v>
       </c>
-      <c r="F19" s="17">
+      <c r="G19" s="17">
         <v>660</v>
       </c>
-      <c r="G19" s="17">
+      <c r="H19" s="17">
         <v>969</v>
       </c>
-      <c r="H19" s="17">
+      <c r="I19" s="17">
         <v>379</v>
       </c>
-      <c r="I19" s="17">
+      <c r="J19" s="17">
         <v>85</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>294</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>1250</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>575</v>
       </c>
-      <c r="M19" s="17">
+      <c r="N19" s="17">
         <v>675</v>
       </c>
-      <c r="N19" s="15">
+      <c r="O19" s="15">
         <v>1192</v>
       </c>
-      <c r="O19" s="17">
+      <c r="P19" s="17">
         <v>459</v>
       </c>
-      <c r="P19" s="17">
+      <c r="Q19" s="17">
         <v>733</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="15">
         <v>1336</v>
       </c>
-      <c r="C20" s="16">
+      <c r="D20" s="16">
         <v>560</v>
       </c>
-      <c r="D20" s="16">
+      <c r="E20" s="16">
         <v>776</v>
       </c>
-      <c r="E20" s="15">
+      <c r="F20" s="15">
         <v>894</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <v>373</v>
       </c>
-      <c r="G20" s="16">
+      <c r="H20" s="16">
         <v>521</v>
       </c>
-      <c r="H20" s="17">
+      <c r="I20" s="17">
         <v>95</v>
       </c>
-      <c r="I20" s="16">
+      <c r="J20" s="16">
         <v>26</v>
       </c>
-      <c r="J20" s="16">
+      <c r="K20" s="16">
         <v>69</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>799</v>
       </c>
-      <c r="L20" s="16">
+      <c r="M20" s="16">
         <v>347</v>
       </c>
-      <c r="M20" s="16">
+      <c r="N20" s="16">
         <v>452</v>
       </c>
-      <c r="N20" s="15">
+      <c r="O20" s="15">
         <v>442</v>
       </c>
-      <c r="O20" s="16">
+      <c r="P20" s="16">
         <v>187</v>
       </c>
-      <c r="P20" s="16">
+      <c r="Q20" s="16">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="15">
         <v>290</v>
       </c>
-      <c r="C21" s="17">
+      <c r="D21" s="17">
         <v>124</v>
       </c>
-      <c r="D21" s="17">
+      <c r="E21" s="17">
         <v>166</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>178</v>
       </c>
-      <c r="F21" s="17">
+      <c r="G21" s="17">
         <v>73</v>
       </c>
-      <c r="G21" s="17">
+      <c r="H21" s="17">
         <v>105</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I21" s="17">
         <v>62</v>
       </c>
-      <c r="I21" s="17">
+      <c r="J21" s="17">
         <v>19</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>43</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>116</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>54</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>62</v>
       </c>
-      <c r="N21" s="15">
+      <c r="O21" s="15">
         <v>112</v>
       </c>
-      <c r="O21" s="17">
+      <c r="P21" s="17">
         <v>51</v>
       </c>
-      <c r="P21" s="17">
+      <c r="Q21" s="17">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C22" s="15">
         <v>214</v>
       </c>
-      <c r="C22" s="16">
+      <c r="D22" s="16">
         <v>97</v>
       </c>
-      <c r="D22" s="16">
+      <c r="E22" s="16">
         <v>117</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="15">
         <v>155</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="16">
         <v>71</v>
       </c>
-      <c r="G22" s="16">
+      <c r="H22" s="16">
         <v>84</v>
       </c>
-      <c r="H22" s="17">
+      <c r="I22" s="17">
         <v>40</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <v>12</v>
       </c>
-      <c r="J22" s="16">
+      <c r="K22" s="16">
         <v>28</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>115</v>
       </c>
-      <c r="L22" s="16">
+      <c r="M22" s="16">
         <v>59</v>
       </c>
-      <c r="M22" s="16">
+      <c r="N22" s="16">
         <v>56</v>
       </c>
-      <c r="N22" s="15">
+      <c r="O22" s="15">
         <v>59</v>
       </c>
-      <c r="O22" s="16">
+      <c r="P22" s="16">
         <v>26</v>
       </c>
-      <c r="P22" s="16">
+      <c r="Q22" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="15">
         <v>650</v>
       </c>
-      <c r="C23" s="17">
+      <c r="D23" s="17">
         <v>286</v>
       </c>
-      <c r="D23" s="17">
+      <c r="E23" s="17">
         <v>364</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="15">
         <v>438</v>
       </c>
-      <c r="F23" s="17">
+      <c r="G23" s="17">
         <v>202</v>
       </c>
-      <c r="G23" s="17">
+      <c r="H23" s="17">
         <v>236</v>
       </c>
-      <c r="H23" s="17">
+      <c r="I23" s="17">
         <v>101</v>
       </c>
-      <c r="I23" s="17">
+      <c r="J23" s="17">
         <v>28</v>
       </c>
-      <c r="J23" s="17">
+      <c r="K23" s="17">
         <v>73</v>
       </c>
-      <c r="K23" s="17">
+      <c r="L23" s="17">
         <v>337</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>174</v>
       </c>
-      <c r="M23" s="17">
+      <c r="N23" s="17">
         <v>163</v>
       </c>
-      <c r="N23" s="15">
+      <c r="O23" s="15">
         <v>212</v>
       </c>
-      <c r="O23" s="17">
+      <c r="P23" s="17">
         <v>84</v>
       </c>
-      <c r="P23" s="17">
+      <c r="Q23" s="17">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="15">
         <v>897</v>
       </c>
-      <c r="C24" s="16">
+      <c r="D24" s="16">
         <v>390</v>
       </c>
-      <c r="D24" s="16">
+      <c r="E24" s="16">
         <v>507</v>
       </c>
-      <c r="E24" s="15">
+      <c r="F24" s="15">
         <v>565</v>
       </c>
-      <c r="F24" s="16">
+      <c r="G24" s="16">
         <v>238</v>
       </c>
-      <c r="G24" s="16">
+      <c r="H24" s="16">
         <v>327</v>
       </c>
-      <c r="H24" s="17">
+      <c r="I24" s="17">
         <v>111</v>
       </c>
-      <c r="I24" s="16">
+      <c r="J24" s="16">
         <v>31</v>
       </c>
-      <c r="J24" s="16">
+      <c r="K24" s="16">
         <v>80</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <v>454</v>
       </c>
-      <c r="L24" s="16">
+      <c r="M24" s="16">
         <v>207</v>
       </c>
-      <c r="M24" s="16">
+      <c r="N24" s="16">
         <v>247</v>
       </c>
-      <c r="N24" s="15">
+      <c r="O24" s="15">
         <v>332</v>
       </c>
-      <c r="O24" s="16">
+      <c r="P24" s="16">
         <v>152</v>
       </c>
-      <c r="P24" s="16">
+      <c r="Q24" s="16">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="15">
         <v>2088</v>
       </c>
-      <c r="C25" s="17">
+      <c r="D25" s="17">
         <v>891</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E25" s="17">
         <v>1197</v>
       </c>
-      <c r="E25" s="15">
+      <c r="F25" s="15">
         <v>1169</v>
       </c>
-      <c r="F25" s="17">
+      <c r="G25" s="17">
         <v>516</v>
       </c>
-      <c r="G25" s="17">
+      <c r="H25" s="17">
         <v>653</v>
       </c>
-      <c r="H25" s="17">
+      <c r="I25" s="17">
         <v>200</v>
       </c>
-      <c r="I25" s="17">
+      <c r="J25" s="17">
         <v>48</v>
       </c>
-      <c r="J25" s="17">
+      <c r="K25" s="17">
         <v>152</v>
       </c>
-      <c r="K25" s="17">
+      <c r="L25" s="17">
         <v>969</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>468</v>
       </c>
-      <c r="M25" s="17">
+      <c r="N25" s="17">
         <v>501</v>
       </c>
-      <c r="N25" s="15">
+      <c r="O25" s="15">
         <v>919</v>
       </c>
-      <c r="O25" s="17">
+      <c r="P25" s="17">
         <v>375</v>
       </c>
-      <c r="P25" s="17">
+      <c r="Q25" s="17">
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="15">
         <v>3181</v>
       </c>
-      <c r="C26" s="16">
+      <c r="D26" s="16">
         <v>1368</v>
       </c>
-      <c r="D26" s="16">
+      <c r="E26" s="16">
         <v>1813</v>
       </c>
-      <c r="E26" s="15">
+      <c r="F26" s="15">
         <v>1834</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>825</v>
       </c>
-      <c r="G26" s="16">
+      <c r="H26" s="16">
         <v>1009</v>
       </c>
-      <c r="H26" s="17">
+      <c r="I26" s="17">
         <v>375</v>
       </c>
-      <c r="I26" s="16">
+      <c r="J26" s="16">
         <v>91</v>
       </c>
-      <c r="J26" s="16">
+      <c r="K26" s="16">
         <v>284</v>
       </c>
-      <c r="K26" s="17">
+      <c r="L26" s="17">
         <v>1459</v>
       </c>
-      <c r="L26" s="16">
+      <c r="M26" s="16">
         <v>734</v>
       </c>
-      <c r="M26" s="16">
+      <c r="N26" s="16">
         <v>725</v>
       </c>
-      <c r="N26" s="15">
+      <c r="O26" s="15">
         <v>1347</v>
       </c>
-      <c r="O26" s="16">
+      <c r="P26" s="16">
         <v>543</v>
       </c>
-      <c r="P26" s="16">
+      <c r="Q26" s="16">
         <v>804</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="15">
         <v>1039</v>
       </c>
-      <c r="C27" s="17">
+      <c r="D27" s="17">
         <v>442</v>
       </c>
-      <c r="D27" s="17">
+      <c r="E27" s="17">
         <v>597</v>
       </c>
-      <c r="E27" s="15">
+      <c r="F27" s="15">
         <v>810</v>
       </c>
-      <c r="F27" s="17">
+      <c r="G27" s="17">
         <v>350</v>
       </c>
-      <c r="G27" s="17">
+      <c r="H27" s="17">
         <v>460</v>
       </c>
-      <c r="H27" s="17">
+      <c r="I27" s="17">
         <v>77</v>
       </c>
-      <c r="I27" s="17">
+      <c r="J27" s="17">
         <v>19</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>58</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>733</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>331</v>
       </c>
-      <c r="M27" s="17">
+      <c r="N27" s="17">
         <v>402</v>
       </c>
-      <c r="N27" s="15">
+      <c r="O27" s="15">
         <v>229</v>
       </c>
-      <c r="O27" s="17">
+      <c r="P27" s="17">
         <v>92</v>
       </c>
-      <c r="P27" s="17">
+      <c r="Q27" s="17">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="15">
         <v>968</v>
       </c>
-      <c r="C28" s="16">
+      <c r="D28" s="16">
         <v>421</v>
       </c>
-      <c r="D28" s="16">
+      <c r="E28" s="16">
         <v>547</v>
       </c>
-      <c r="E28" s="15">
+      <c r="F28" s="15">
         <v>617</v>
       </c>
-      <c r="F28" s="16">
+      <c r="G28" s="16">
         <v>277</v>
       </c>
-      <c r="G28" s="16">
+      <c r="H28" s="16">
         <v>340</v>
       </c>
-      <c r="H28" s="17">
+      <c r="I28" s="17">
         <v>165</v>
       </c>
-      <c r="I28" s="16">
+      <c r="J28" s="16">
         <v>47</v>
       </c>
-      <c r="J28" s="16">
+      <c r="K28" s="16">
         <v>118</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>452</v>
       </c>
-      <c r="L28" s="16">
+      <c r="M28" s="16">
         <v>230</v>
       </c>
-      <c r="M28" s="16">
+      <c r="N28" s="16">
         <v>222</v>
       </c>
-      <c r="N28" s="15">
+      <c r="O28" s="15">
         <v>351</v>
       </c>
-      <c r="O28" s="16">
+      <c r="P28" s="16">
         <v>144</v>
       </c>
-      <c r="P28" s="16">
+      <c r="Q28" s="16">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="15">
         <v>285</v>
       </c>
-      <c r="C29" s="17">
+      <c r="D29" s="17">
         <v>131</v>
       </c>
-      <c r="D29" s="17">
+      <c r="E29" s="17">
         <v>154</v>
       </c>
-      <c r="E29" s="15">
+      <c r="F29" s="15">
         <v>224</v>
       </c>
-      <c r="F29" s="17">
+      <c r="G29" s="17">
         <v>101</v>
       </c>
-      <c r="G29" s="17">
+      <c r="H29" s="17">
         <v>123</v>
       </c>
-      <c r="H29" s="17">
+      <c r="I29" s="17">
         <v>58</v>
       </c>
-      <c r="I29" s="17">
+      <c r="J29" s="17">
         <v>14</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>44</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>166</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>87</v>
       </c>
-      <c r="M29" s="17">
+      <c r="N29" s="17">
         <v>79</v>
       </c>
-      <c r="N29" s="15">
+      <c r="O29" s="15">
         <v>61</v>
       </c>
-      <c r="O29" s="17">
+      <c r="P29" s="17">
         <v>30</v>
       </c>
-      <c r="P29" s="17">
+      <c r="Q29" s="17">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C30" s="15">
         <v>5048</v>
       </c>
-      <c r="C30" s="16">
+      <c r="D30" s="16">
         <v>2237</v>
       </c>
-      <c r="D30" s="16">
+      <c r="E30" s="16">
         <v>2811</v>
       </c>
-      <c r="E30" s="15">
+      <c r="F30" s="15">
         <v>3252</v>
       </c>
-      <c r="F30" s="16">
+      <c r="G30" s="16">
         <v>1436</v>
       </c>
-      <c r="G30" s="16">
+      <c r="H30" s="16">
         <v>1816</v>
       </c>
-      <c r="H30" s="17">
+      <c r="I30" s="17">
         <v>316</v>
       </c>
-      <c r="I30" s="16">
+      <c r="J30" s="16">
         <v>69</v>
       </c>
-      <c r="J30" s="16">
+      <c r="K30" s="16">
         <v>247</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="17">
         <v>2936</v>
       </c>
-      <c r="L30" s="16">
+      <c r="M30" s="16">
         <v>1367</v>
       </c>
-      <c r="M30" s="16">
+      <c r="N30" s="16">
         <v>1569</v>
       </c>
-      <c r="N30" s="15">
+      <c r="O30" s="15">
         <v>1796</v>
       </c>
-      <c r="O30" s="16">
+      <c r="P30" s="16">
         <v>801</v>
       </c>
-      <c r="P30" s="16">
+      <c r="Q30" s="16">
         <v>995</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="15">
         <v>1666</v>
       </c>
-      <c r="C31" s="17">
+      <c r="D31" s="17">
         <v>744</v>
       </c>
-      <c r="D31" s="17">
+      <c r="E31" s="17">
         <v>922</v>
       </c>
-      <c r="E31" s="15">
+      <c r="F31" s="15">
         <v>1117</v>
       </c>
-      <c r="F31" s="17">
+      <c r="G31" s="17">
         <v>542</v>
       </c>
-      <c r="G31" s="17">
+      <c r="H31" s="17">
         <v>575</v>
       </c>
-      <c r="H31" s="17">
+      <c r="I31" s="17">
         <v>113</v>
       </c>
-      <c r="I31" s="17">
+      <c r="J31" s="17">
         <v>29</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>84</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <v>1004</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>513</v>
       </c>
-      <c r="M31" s="17">
+      <c r="N31" s="17">
         <v>491</v>
       </c>
-      <c r="N31" s="15">
+      <c r="O31" s="15">
         <v>549</v>
       </c>
-      <c r="O31" s="17">
+      <c r="P31" s="17">
         <v>202</v>
       </c>
-      <c r="P31" s="17">
+      <c r="Q31" s="17">
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C32" s="15">
         <v>726</v>
       </c>
-      <c r="C32" s="16">
+      <c r="D32" s="16">
         <v>299</v>
       </c>
-      <c r="D32" s="16">
+      <c r="E32" s="16">
         <v>427</v>
       </c>
-      <c r="E32" s="15">
+      <c r="F32" s="15">
         <v>455</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="16">
         <v>198</v>
       </c>
-      <c r="G32" s="16">
+      <c r="H32" s="16">
         <v>257</v>
       </c>
-      <c r="H32" s="17">
+      <c r="I32" s="17">
         <v>107</v>
       </c>
-      <c r="I32" s="16">
+      <c r="J32" s="16">
         <v>30</v>
       </c>
-      <c r="J32" s="16">
+      <c r="K32" s="16">
         <v>77</v>
       </c>
-      <c r="K32" s="17">
+      <c r="L32" s="17">
         <v>348</v>
       </c>
-      <c r="L32" s="16">
+      <c r="M32" s="16">
         <v>168</v>
       </c>
-      <c r="M32" s="16">
+      <c r="N32" s="16">
         <v>180</v>
       </c>
-      <c r="N32" s="15">
+      <c r="O32" s="15">
         <v>271</v>
       </c>
-      <c r="O32" s="16">
+      <c r="P32" s="16">
         <v>101</v>
       </c>
-      <c r="P32" s="16">
+      <c r="Q32" s="16">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="30">
         <v>8343</v>
       </c>
-      <c r="C33" s="31">
+      <c r="D33" s="31">
         <v>3538</v>
       </c>
-      <c r="D33" s="31">
+      <c r="E33" s="31">
         <v>4805</v>
       </c>
-      <c r="E33" s="30">
+      <c r="F33" s="30">
         <v>4835</v>
       </c>
-      <c r="F33" s="31">
+      <c r="G33" s="31">
         <v>2139</v>
       </c>
-      <c r="G33" s="31">
+      <c r="H33" s="31">
         <v>2696</v>
       </c>
-      <c r="H33" s="31">
+      <c r="I33" s="31">
         <v>1089</v>
       </c>
-      <c r="I33" s="31">
+      <c r="J33" s="31">
         <v>271</v>
       </c>
-      <c r="J33" s="31">
+      <c r="K33" s="31">
         <v>818</v>
       </c>
-      <c r="K33" s="31">
+      <c r="L33" s="31">
         <v>3746</v>
       </c>
-      <c r="L33" s="31">
+      <c r="M33" s="31">
         <v>1868</v>
       </c>
-      <c r="M33" s="31">
+      <c r="N33" s="31">
         <v>1878</v>
       </c>
-      <c r="N33" s="30">
+      <c r="O33" s="30">
         <v>3508</v>
       </c>
-      <c r="O33" s="31">
+      <c r="P33" s="31">
         <v>1399</v>
       </c>
-      <c r="P33" s="31">
+      <c r="Q33" s="31">
         <v>2109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.51181102362204722" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
